--- a/Data/EC/NIT-8909059807.xlsx
+++ b/Data/EC/NIT-8909059807.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8ACCAF-319B-4FB7-9894-8D868C324545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{604BECFB-A5AD-46B3-AD9D-A2E894169932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5CC18B0-A776-4523-B494-CE5068AC44A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4D61146E-69C9-4A39-B4DD-603963CBB2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,24 +65,54 @@
     <t>CC</t>
   </si>
   <si>
-    <t>7921143</t>
-  </si>
-  <si>
-    <t>JHONNY GONZALEZ GONZALEZ MENDOZA</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>1044926684</t>
-  </si>
-  <si>
-    <t>YENEYS PARDO SOLIPA</t>
+    <t>1001941167</t>
+  </si>
+  <si>
+    <t>ERIKA PAOLA DE MOYA PARDO</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1140909509</t>
+  </si>
+  <si>
+    <t>WILMER JOSE PAZ CARRASQUERO</t>
   </si>
   <si>
     <t>2001</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>1001970826</t>
+  </si>
+  <si>
+    <t>CAROLINA ISABEL DIAZ BOSSIO</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
     <t>1143346433</t>
   </si>
   <si>
@@ -90,81 +120,6 @@
   </si>
   <si>
     <t>2401</t>
-  </si>
-  <si>
-    <t>1047436363</t>
-  </si>
-  <si>
-    <t>ALBA ESTHER BALAGUERA GONZALEZ</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>3561102</t>
-  </si>
-  <si>
-    <t>MARIO DE JESUS RESTREPO BOTERO</t>
-  </si>
-  <si>
-    <t>1140909509</t>
-  </si>
-  <si>
-    <t>WILMER JOSE PAZ CARRASQUERO</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1001941167</t>
-  </si>
-  <si>
-    <t>ERIKA PAOLA DE MOYA PARDO</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1001970826</t>
-  </si>
-  <si>
-    <t>CAROLINA ISABEL DIAZ BOSSIO</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>1047472973</t>
-  </si>
-  <si>
-    <t>JHEINLIZ DEL CARMEN HINESTROZA RAMIREZ</t>
-  </si>
-  <si>
-    <t>8271450</t>
-  </si>
-  <si>
-    <t>JORGE GUILLERMO TORO ALZATE</t>
-  </si>
-  <si>
-    <t>2501</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -263,7 +218,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -276,9 +233,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -478,23 +433,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,10 +477,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C93AD5-AF3F-DE10-0F9A-AF7981B362A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DF8F23-F579-12C6-A4B3-05DBE345DB1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,8 +884,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9A1CC7-9E1D-40F6-8483-41FDB2B48A8B}">
-  <dimension ref="B2:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5055120-1D87-4D9A-B92E-8C3B49A2C270}">
+  <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -941,7 +896,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -954,7 +909,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -999,7 +954,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1031,12 +986,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>833782</v>
+        <v>644707</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1047,17 +1002,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1084,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1107,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>64254</v>
+        <v>63400</v>
       </c>
       <c r="G16" s="18">
-        <v>1606350</v>
+        <v>1902000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1130,10 +1085,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>62000</v>
+        <v>39258</v>
       </c>
       <c r="G17" s="18">
-        <v>1550000</v>
+        <v>2859276</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1144,19 +1099,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F18" s="18">
-        <v>10400</v>
+        <v>73609</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>2859276</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1167,19 +1122,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>3122</v>
+        <v>73609</v>
       </c>
       <c r="G19" s="18">
-        <v>2341190</v>
+        <v>2859276</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1190,19 +1145,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>4345</v>
+        <v>73609</v>
       </c>
       <c r="G20" s="18">
-        <v>3259100</v>
+        <v>2859276</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1213,19 +1168,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>73609</v>
       </c>
       <c r="G21" s="18">
-        <v>1840242</v>
+        <v>2859276</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1236,19 +1191,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>73609</v>
       </c>
       <c r="G22" s="18">
-        <v>1840242</v>
+        <v>2859276</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1259,19 +1214,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>73609</v>
       </c>
       <c r="G23" s="18">
-        <v>1840242</v>
+        <v>2859276</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1282,19 +1237,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>73609</v>
       </c>
       <c r="G24" s="18">
-        <v>1840242</v>
+        <v>2859276</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1305,213 +1260,75 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F25" s="18">
-        <v>73609</v>
+        <v>16386</v>
       </c>
       <c r="G25" s="18">
-        <v>1840242</v>
+        <v>1228924</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="18">
-        <v>73609</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1840242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="18">
-        <v>73609</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1840242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="18">
-        <v>39258</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1840242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="18">
-        <v>63400</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1902000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="C26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="24">
+        <v>10400</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="H31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="18">
-        <v>16386</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1228924</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="18">
-        <v>3354</v>
-      </c>
-      <c r="G31" s="18">
-        <v>2515200</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G32" s="24">
-        <v>3258081</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H31:J31"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8909059807.xlsx
+++ b/Data/EC/NIT-8909059807.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{604BECFB-A5AD-46B3-AD9D-A2E894169932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDEE816D-7D56-4827-B5FD-958523D0B5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4D61146E-69C9-4A39-B4DD-603963CBB2BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ABDD8E15-A9C7-477C-B84E-B649CAAB2833}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -233,7 +231,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,29 +427,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,19 +468,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DF8F23-F579-12C6-A4B3-05DBE345DB1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5452FA3B-28ED-82C2-CFE4-A0AE42BF4748}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,80 +890,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5055120-1D87-4D9A-B92E-8C3B49A2C270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E15B77B-FBBE-49DD-B9E9-CE24D2D76AE8}">
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -967,13 +973,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8909059807</v>
       </c>
@@ -983,13 +989,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>644707</v>
       </c>
@@ -999,8 +1005,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
@@ -1019,7 +1025,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1058,20 +1064,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>63400</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1902000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1081,20 +1087,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>39258</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>2859276</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1104,20 +1110,20 @@
       <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>73609</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>2859276</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1127,20 +1133,20 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>73609</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>2859276</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1150,20 +1156,20 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>73609</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>2859276</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1173,20 +1179,20 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>73609</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>2859276</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1196,20 +1202,20 @@
       <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>73609</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>2859276</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1219,20 +1225,20 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>73609</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>2859276</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1242,20 +1248,20 @@
       <c r="D24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>73609</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>2859276</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1265,58 +1271,58 @@
       <c r="D25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>16386</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1228924</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="21" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="26">
         <v>10400</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="26">
         <v>1300000</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="32"/>
+      <c r="C31" s="34"/>
       <c r="H31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
+    <row r="32" spans="2:10">
+      <c r="B32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="34"/>
       <c r="H32" s="1" t="s">
         <v>38</v>
       </c>
